--- a/ApolloQA/Data/RatingManual/GA/VA00069.DeductibleFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00069.DeductibleFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00069.DeductibleFactors" sheetId="1" r:id="R9323774d6842434f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00069.DeductibleFactors" sheetId="1" r:id="R5555359e9f45487d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,31 +12,15 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Deductible</x:v>
+        <x:v>Motor Carrier Filing Type</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Deductible Factor</x:v>
+        <x:v>Motor Carrier Filing Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$250</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.1750</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>$500</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0750</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>$1,000</x:v>
+        <x:v>None</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -44,26 +28,18 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$2,500</x:v>
+        <x:v>Single State</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>Multi-State or Federal (ICC/FHWA)</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>$10,000</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
